--- a/apps/conveyor/backend/operation/sbin/R301.xlsx
+++ b/apps/conveyor/backend/operation/sbin/R301.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmy/works/semi-ts/conveyor/monorepo/apps/conveyor/backend/sbin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmy/works/semi-ts/conveyor/monorepo/apps/conveyor/backend/operation/sbin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BA8598-5569-2F49-8E95-00DF4693429B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C793D3-FF9C-E94B-8895-F0804663A841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51720" yWindow="500" windowWidth="32360" windowHeight="25340" tabRatio="812" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51720" yWindow="500" windowWidth="32360" windowHeight="25340" tabRatio="812" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="323">
   <si>
     <t>Domain</t>
   </si>
@@ -1026,10 +1026,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>session</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>세션 정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1255,6 +1251,18 @@
   </si>
   <si>
     <t>UQ_RESOURCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_session</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashboard_session</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tablet_session</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1391,7 +1399,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1442,6 +1450,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1773,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>7</v>
@@ -1784,7 +1795,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>244</v>
@@ -1822,7 +1833,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>76</v>
@@ -1841,7 +1852,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>78</v>
@@ -1860,7 +1871,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>79</v>
@@ -1879,7 +1890,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>86</v>
@@ -1898,7 +1909,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>90</v>
@@ -1959,7 +1970,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>122</v>
@@ -1982,7 +1993,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>130</v>
@@ -2001,7 +2012,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>131</v>
@@ -2020,7 +2031,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>138</v>
@@ -2058,7 +2069,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>143</v>
@@ -2077,7 +2088,7 @@
         <v>53</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>149</v>
@@ -2100,7 +2111,7 @@
         <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>152</v>
@@ -2119,7 +2130,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>155</v>
@@ -2142,20 +2153,20 @@
         <v>53</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2163,10 +2174,10 @@
         <v>53</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="11"/>
@@ -2174,7 +2185,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2182,22 +2193,22 @@
         <v>53</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>312</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>313</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="11" t="s">
         <v>243</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2507,7 +2518,7 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
@@ -2567,7 +2578,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2581,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3188,10 +3199,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3199,7 +3210,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3580,7 +3591,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>213</v>
@@ -3598,7 +3609,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>214</v>
@@ -3867,15 +3878,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01D0896-8A22-A941-AD57-33DE66A3212D}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -4045,7 +4056,7 @@
     </row>
     <row r="9" spans="1:8" ht="13.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>251</v>
@@ -4056,7 +4067,39 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4864,7 +4907,7 @@
     </row>
     <row r="3" spans="1:8" ht="17">
       <c r="A3" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>
@@ -4880,7 +4923,7 @@
     </row>
     <row r="4" spans="1:8" ht="17">
       <c r="A4" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>257</v>
@@ -4893,15 +4936,15 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17">
       <c r="A5" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
@@ -4914,10 +4957,10 @@
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
@@ -4930,10 +4973,10 @@
     </row>
     <row r="7" spans="1:8" ht="17">
       <c r="A7" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -4941,7 +4984,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17">
@@ -5076,7 +5119,7 @@
     </row>
     <row r="2" spans="1:8" ht="17">
       <c r="A2" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>91</v>
@@ -5096,10 +5139,10 @@
     </row>
     <row r="3" spans="1:8" ht="17">
       <c r="A3" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
@@ -5109,16 +5152,16 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17">
       <c r="A4" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -5131,7 +5174,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
@@ -5140,7 +5183,7 @@
     </row>
     <row r="5" spans="1:8" ht="17">
       <c r="A5" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -5156,7 +5199,7 @@
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -5172,7 +5215,7 @@
     </row>
     <row r="7" spans="1:8" ht="17">
       <c r="A7" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>22</v>
@@ -5248,7 +5291,7 @@
     </row>
     <row r="2" spans="1:8" ht="17">
       <c r="A2" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>91</v>
@@ -5268,7 +5311,7 @@
     </row>
     <row r="3" spans="1:8" ht="17">
       <c r="A3" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>
@@ -5281,14 +5324,14 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="17">
       <c r="A4" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>248</v>
@@ -5301,17 +5344,17 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="17">
       <c r="A5" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
@@ -5324,10 +5367,10 @@
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>16</v>
@@ -5340,10 +5383,10 @@
     </row>
     <row r="7" spans="1:8" ht="17">
       <c r="A7" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>319</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>16</v>
